--- a/experiment_documentation.xlsx
+++ b/experiment_documentation.xlsx
@@ -1,25 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\cs6850_network_project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9734846B-B6AB-4354-9AA4-6391381EF858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$9</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$G$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$G$2:$G$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$H$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$H$2:$H$9</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+  <si>
+    <t>Edge Size</t>
+  </si>
+  <si>
+    <t>UB Margin of Error</t>
+  </si>
+  <si>
+    <t>LB Margin of Error</t>
+  </si>
+  <si>
+    <t>Optimality Gap (%)</t>
+  </si>
+  <si>
+    <t>CPU Time (Sec)</t>
+  </si>
+  <si>
+    <t>Upper Bound</t>
+  </si>
+  <si>
+    <t>Lower Bound</t>
+  </si>
+  <si>
+    <t>Optimal Seed Set Size (S)</t>
+  </si>
+  <si>
+    <t>Budget Size</t>
+  </si>
+  <si>
+    <t>Number of Training Cascades (N)</t>
+  </si>
+  <si>
+    <t>Margin of Error</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,6 +128,5302 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Upper Bound</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$C$2:$C$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>7.3999999999999996E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.10100000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.122</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.19</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.251</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.63100000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.982</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$C$2:$C$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>7.3999999999999996E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.10100000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.122</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.19</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.251</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.63100000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.982</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>28.234000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.021000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.865000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.540999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>162.83600000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>298.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>618.86199999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2CCB-4985-8165-528DA86D3A14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lower Bound</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$E$2:$E$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0.14000000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.13900000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.17799999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.22900000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.32100000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.42399999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.103</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.9470000000000001</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$E$2:$E$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0.14000000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.13900000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.17799999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.22900000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.32100000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.42399999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.103</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.9470000000000001</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>27.734000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.408000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.584000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113.994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>144.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>269.35599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>466.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-2CCB-4985-8165-528DA86D3A14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="144599695"/>
+        <c:axId val="58999343"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Edge Size</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-2CCB-4985-8165-528DA86D3A14}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimality Gap (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.7689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.214</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.524</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.316000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.617999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-2CCB-4985-8165-528DA86D3A14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="145608511"/>
+        <c:axId val="144591071"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="144599695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Edge Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="58999343"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="58999343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Objective Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144599695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="144591071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Optimmality</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Gap </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>%</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="145608511"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="145608511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="144591071"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU Time (Sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>57.503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>168.33500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>362.23700000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>652.68499999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1059.2719999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2084.0189999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3389.627</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7D5E-4F0B-BC36-8395BE3FAE39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="159654239"/>
+        <c:axId val="45023903"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimal Seed Set Size (S)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>185</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D5E-4F0B-BC36-8395BE3FAE39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="195019167"/>
+        <c:axId val="137860831"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="195019167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Edge Size </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="137860831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="137860831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Optimal Seed Set Size |S|</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="195019167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="45023903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPU Time (Sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="159654239"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="159654239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45023903"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimal Seed Set Size (S)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$38:$A$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$38:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C70C-47FA-8D50-8A7356694B43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="159656559"/>
+        <c:axId val="190433951"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimality Gap (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>14.744999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.731999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.792</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8409999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2460000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.484</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9039999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C70C-47FA-8D50-8A7356694B43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="154254143"/>
+        <c:axId val="152429647"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="159656559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Budge Size (B)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190433951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="190433951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seed Set Size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> |S|</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="159656559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="152429647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Optimality Gap</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="154254143"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="154254143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="152429647"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU Time (Sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$51:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>174.49199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>223.43100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>279.28899999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>332.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>433.33600000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>621.053</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>845.20299999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1061.9770000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0B65-4287-B553-3FC2A58E51F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="160569935"/>
+        <c:axId val="144592031"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Margin of Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$51:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B65-4287-B553-3FC2A58E51F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="198663263"/>
+        <c:axId val="144787471"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="198663263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Training Cascades</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144787471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="144787471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Margin of Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="198663263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="144592031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPU Time (Sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="160569935"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="160569935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="144592031"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>566652</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>159674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>730828</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>6234</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69EC5772-281B-74E9-7647-CEF929E73F6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>268431</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>126422</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>408881</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>73082</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C01B7CD-8F88-07D0-0382-F735474F64CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>809105</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>105295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>515736</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>77932</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF259DCF-9D2E-93B4-B579-FFD616D6FA78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>180281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>597477</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>50049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6A4FEBD-D445-105C-2E73-671EF192D760}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +5688,481 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>28.234000000000002</v>
+      </c>
+      <c r="C2">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D2">
+        <v>27.734000000000002</v>
+      </c>
+      <c r="E2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F2">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>57.503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>35.021000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.06</v>
+      </c>
+      <c r="D3">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="E3">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="F3">
+        <v>5.9139999999999997</v>
+      </c>
+      <c r="G3">
+        <v>27</v>
+      </c>
+      <c r="H3">
+        <v>85.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>52.865000000000002</v>
+      </c>
+      <c r="C4">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D4">
+        <v>46.408000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="F4">
+        <v>12.214</v>
+      </c>
+      <c r="G4">
+        <v>37</v>
+      </c>
+      <c r="H4">
+        <v>168.33500000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>500</v>
+      </c>
+      <c r="B5">
+        <v>77.540999999999997</v>
+      </c>
+      <c r="C5">
+        <v>0.122</v>
+      </c>
+      <c r="D5">
+        <v>75.584000000000003</v>
+      </c>
+      <c r="E5">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F5">
+        <v>2.524</v>
+      </c>
+      <c r="G5">
+        <v>56</v>
+      </c>
+      <c r="H5">
+        <v>362.23700000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1000</v>
+      </c>
+      <c r="B6">
+        <v>114.82</v>
+      </c>
+      <c r="C6">
+        <v>0.19</v>
+      </c>
+      <c r="D6">
+        <v>113.994</v>
+      </c>
+      <c r="E6">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="G6">
+        <v>80</v>
+      </c>
+      <c r="H6">
+        <v>652.68499999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="B7">
+        <v>162.83600000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.251</v>
+      </c>
+      <c r="D7">
+        <v>144.41</v>
+      </c>
+      <c r="E7">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="F7">
+        <v>11.316000000000001</v>
+      </c>
+      <c r="G7">
+        <v>105</v>
+      </c>
+      <c r="H7">
+        <v>1059.2719999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5000</v>
+      </c>
+      <c r="B8">
+        <v>298.36</v>
+      </c>
+      <c r="C8">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="D8">
+        <v>269.35599999999999</v>
+      </c>
+      <c r="E8">
+        <v>1.103</v>
+      </c>
+      <c r="F8">
+        <v>9.7210000000000001</v>
+      </c>
+      <c r="G8">
+        <v>157</v>
+      </c>
+      <c r="H8">
+        <v>2084.0189999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10000</v>
+      </c>
+      <c r="B9">
+        <v>618.86199999999997</v>
+      </c>
+      <c r="C9">
+        <v>1.982</v>
+      </c>
+      <c r="D9">
+        <v>466.51</v>
+      </c>
+      <c r="E9">
+        <v>2.9470000000000001</v>
+      </c>
+      <c r="F9">
+        <v>24.617999999999999</v>
+      </c>
+      <c r="G9">
+        <v>185</v>
+      </c>
+      <c r="H9">
+        <v>3389.627</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>20</v>
+      </c>
+      <c r="B38">
+        <v>33</v>
+      </c>
+      <c r="C38">
+        <v>14.744999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>46</v>
+      </c>
+      <c r="C39">
+        <v>13.731999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>60</v>
+      </c>
+      <c r="B40">
+        <v>57</v>
+      </c>
+      <c r="C40">
+        <v>10.792</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>80</v>
+      </c>
+      <c r="B41">
+        <v>67</v>
+      </c>
+      <c r="C41">
+        <v>10.352</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>100</v>
+      </c>
+      <c r="B42">
+        <v>75</v>
+      </c>
+      <c r="C42">
+        <v>9.8409999999999993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>120</v>
+      </c>
+      <c r="B43">
+        <v>83</v>
+      </c>
+      <c r="C43">
+        <v>9.8140000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>140</v>
+      </c>
+      <c r="B44">
+        <v>90</v>
+      </c>
+      <c r="C44">
+        <v>9.2460000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>160</v>
+      </c>
+      <c r="B45">
+        <v>94</v>
+      </c>
+      <c r="C45">
+        <v>10.484</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>180</v>
+      </c>
+      <c r="B46">
+        <v>101</v>
+      </c>
+      <c r="C46">
+        <v>9.9039999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>200</v>
+      </c>
+      <c r="B47">
+        <v>107</v>
+      </c>
+      <c r="C47">
+        <v>9.9039999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>1.56</v>
+      </c>
+      <c r="C51">
+        <v>174.49199999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="B52">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="C52">
+        <v>223.43100000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>15</v>
+      </c>
+      <c r="B53">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="C53">
+        <v>279.28899999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>20</v>
+      </c>
+      <c r="B54">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="C54">
+        <v>332.24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>30</v>
+      </c>
+      <c r="B55">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="C55">
+        <v>433.33600000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>50</v>
+      </c>
+      <c r="B56">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="C56">
+        <v>621.053</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>75</v>
+      </c>
+      <c r="B57">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="C57">
+        <v>845.20299999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>100</v>
+      </c>
+      <c r="B58">
+        <v>0.251</v>
+      </c>
+      <c r="C58">
+        <v>1061.9770000000001</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/experiment_documentation.xlsx
+++ b/experiment_documentation.xlsx
@@ -1,27 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\cs6850_network_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joeye/Documents/GitHub/cs6850_network_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9734846B-B6AB-4354-9AA4-6391381EF858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76D4707-97B1-814F-B0FF-74DE4A8EF988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$9</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$G$2:$G$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$H$2:$H$9</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1071,6 +1064,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="144591071"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1744,6 +1738,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="45023903"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2001,9 +1996,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2011,18 +2004,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2421,6 +2410,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="152429647"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3055,6 +3045,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="144592031"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -5691,23 +5682,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="110" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5733,7 +5724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>50</v>
       </c>
@@ -5759,7 +5750,7 @@
         <v>57.503</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>100</v>
       </c>
@@ -5785,7 +5776,7 @@
         <v>85.04</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>200</v>
       </c>
@@ -5811,7 +5802,7 @@
         <v>168.33500000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>500</v>
       </c>
@@ -5837,7 +5828,7 @@
         <v>362.23700000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1000</v>
       </c>
@@ -5863,7 +5854,7 @@
         <v>652.68499999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -5889,7 +5880,7 @@
         <v>1059.2719999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5000</v>
       </c>
@@ -5915,7 +5906,7 @@
         <v>2084.0189999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10000</v>
       </c>
@@ -5941,7 +5932,7 @@
         <v>3389.627</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -5952,7 +5943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>20</v>
       </c>
@@ -5963,7 +5954,7 @@
         <v>14.744999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>40</v>
       </c>
@@ -5974,7 +5965,7 @@
         <v>13.731999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>60</v>
       </c>
@@ -5985,7 +5976,7 @@
         <v>10.792</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>80</v>
       </c>
@@ -5996,7 +5987,7 @@
         <v>10.352</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>100</v>
       </c>
@@ -6007,7 +5998,7 @@
         <v>9.8409999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>120</v>
       </c>
@@ -6018,7 +6009,7 @@
         <v>9.8140000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>140</v>
       </c>
@@ -6029,7 +6020,7 @@
         <v>9.2460000000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>160</v>
       </c>
@@ -6040,7 +6031,7 @@
         <v>10.484</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>180</v>
       </c>
@@ -6051,7 +6042,7 @@
         <v>9.9039999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>200</v>
       </c>
@@ -6062,7 +6053,7 @@
         <v>9.9039999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -6073,7 +6064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>5</v>
       </c>
@@ -6084,7 +6075,7 @@
         <v>174.49199999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>10</v>
       </c>
@@ -6095,7 +6086,7 @@
         <v>223.43100000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>15</v>
       </c>
@@ -6106,7 +6097,7 @@
         <v>279.28899999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>20</v>
       </c>
@@ -6117,7 +6108,7 @@
         <v>332.24</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>30</v>
       </c>
@@ -6128,7 +6119,7 @@
         <v>433.33600000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>50</v>
       </c>
@@ -6139,7 +6130,7 @@
         <v>621.053</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>75</v>
       </c>
@@ -6150,7 +6141,7 @@
         <v>845.20299999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>100</v>
       </c>
